--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yejin/Codes/Walkapp_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F30B9F-A124-5645-8455-043543A577DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5088AF0-A750-3D4C-B956-FC390AC65A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="28440" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="39">
   <si>
     <t>사용자ID</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>P14</t>
+  </si>
+  <si>
+    <t>변화율</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -575,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
